--- a/upload/Student.xlsx
+++ b/upload/Student.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WEB DEV\OELP\Sample Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDCCACB-515F-40A9-A4D0-8A9F9E0874CB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17196A0-CB05-4CD9-B29C-69EECC20A6C3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Name</t>
   </si>
@@ -101,13 +101,19 @@
     <t>Student20</t>
   </si>
   <si>
-    <t>program</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
     <t xml:space="preserve">Department </t>
+  </si>
+  <si>
+    <t>CSE</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>EE</t>
   </si>
 </sst>
 </file>
@@ -442,21 +448,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5546875" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -467,16 +473,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -487,8 +487,11 @@
         <f>_xlfn.CONCAT(B2, "@gmail.com")</f>
         <v>102001001@gmail.com</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -499,8 +502,11 @@
         <f t="shared" ref="C3:C21" si="0">_xlfn.CONCAT(B3, "@gmail.com")</f>
         <v>102001002@gmail.com</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -511,8 +517,11 @@
         <f t="shared" si="0"/>
         <v>102001003@gmail.com</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -523,8 +532,11 @@
         <f t="shared" si="0"/>
         <v>102001004@gmail.com</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -535,8 +547,11 @@
         <f t="shared" si="0"/>
         <v>102001005@gmail.com</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -547,8 +562,11 @@
         <f t="shared" si="0"/>
         <v>102001006@gmail.com</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -559,8 +577,11 @@
         <f t="shared" si="0"/>
         <v>102001007@gmail.com</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -571,8 +592,11 @@
         <f t="shared" si="0"/>
         <v>102001008@gmail.com</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -583,8 +607,11 @@
         <f t="shared" si="0"/>
         <v>102001009@gmail.com</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -595,8 +622,11 @@
         <f t="shared" si="0"/>
         <v>102001010@gmail.com</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -607,8 +637,11 @@
         <f t="shared" si="0"/>
         <v>102001011@gmail.com</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -619,8 +652,11 @@
         <f t="shared" si="0"/>
         <v>102001012@gmail.com</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -631,8 +667,11 @@
         <f t="shared" si="0"/>
         <v>102001013@gmail.com</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -643,8 +682,11 @@
         <f t="shared" si="0"/>
         <v>102001014@gmail.com</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -655,8 +697,11 @@
         <f t="shared" si="0"/>
         <v>102001015@gmail.com</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -667,8 +712,11 @@
         <f t="shared" si="0"/>
         <v>102001016@gmail.com</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -679,8 +727,11 @@
         <f t="shared" si="0"/>
         <v>102001017@gmail.com</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -691,8 +742,11 @@
         <f t="shared" si="0"/>
         <v>102001018@gmail.com</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -703,8 +757,11 @@
         <f t="shared" si="0"/>
         <v>102001019@gmail.com</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -714,6 +771,9 @@
       <c r="C21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>102001020@gmail.com</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/upload/Student.xlsx
+++ b/upload/Student.xlsx
@@ -1,36 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WEB DEV\OELP\Sample Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\TA_Allocation_OELP\data files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17196A0-CB05-4CD9-B29C-69EECC20A6C3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99DF1A9-E12C-4EA2-9C5D-4AFEC8568436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="86">
   <si>
     <t>Name</t>
   </si>
@@ -41,67 +36,241 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Student1</t>
-  </si>
-  <si>
-    <t>Student2</t>
-  </si>
-  <si>
-    <t>Student3</t>
-  </si>
-  <si>
-    <t>Student4</t>
-  </si>
-  <si>
-    <t>Student5</t>
-  </si>
-  <si>
-    <t>Student6</t>
-  </si>
-  <si>
-    <t>Student7</t>
-  </si>
-  <si>
-    <t>Student8</t>
-  </si>
-  <si>
-    <t>Student9</t>
-  </si>
-  <si>
-    <t>Student10</t>
-  </si>
-  <si>
-    <t>Student11</t>
-  </si>
-  <si>
-    <t>Student12</t>
-  </si>
-  <si>
-    <t>Student13</t>
-  </si>
-  <si>
-    <t>Student14</t>
-  </si>
-  <si>
-    <t>Student15</t>
-  </si>
-  <si>
-    <t>Student16</t>
-  </si>
-  <si>
-    <t>Student17</t>
-  </si>
-  <si>
-    <t>Student18</t>
-  </si>
-  <si>
-    <t>Student19</t>
-  </si>
-  <si>
-    <t>Student20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Department </t>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>student1</t>
+  </si>
+  <si>
+    <t>student2</t>
+  </si>
+  <si>
+    <t>student3</t>
+  </si>
+  <si>
+    <t>student4</t>
+  </si>
+  <si>
+    <t>student5</t>
+  </si>
+  <si>
+    <t>student6</t>
+  </si>
+  <si>
+    <t>student7</t>
+  </si>
+  <si>
+    <t>student8</t>
+  </si>
+  <si>
+    <t>student9</t>
+  </si>
+  <si>
+    <t>student10</t>
+  </si>
+  <si>
+    <t>student11</t>
+  </si>
+  <si>
+    <t>student12</t>
+  </si>
+  <si>
+    <t>student13</t>
+  </si>
+  <si>
+    <t>student14</t>
+  </si>
+  <si>
+    <t>student15</t>
+  </si>
+  <si>
+    <t>student16</t>
+  </si>
+  <si>
+    <t>student17</t>
+  </si>
+  <si>
+    <t>student18</t>
+  </si>
+  <si>
+    <t>student19</t>
+  </si>
+  <si>
+    <t>student20</t>
+  </si>
+  <si>
+    <t>student21</t>
+  </si>
+  <si>
+    <t>student22</t>
+  </si>
+  <si>
+    <t>student23</t>
+  </si>
+  <si>
+    <t>student24</t>
+  </si>
+  <si>
+    <t>student25</t>
+  </si>
+  <si>
+    <t>student26</t>
+  </si>
+  <si>
+    <t>student27</t>
+  </si>
+  <si>
+    <t>student28</t>
+  </si>
+  <si>
+    <t>student29</t>
+  </si>
+  <si>
+    <t>student30</t>
+  </si>
+  <si>
+    <t>student31</t>
+  </si>
+  <si>
+    <t>student32</t>
+  </si>
+  <si>
+    <t>student33</t>
+  </si>
+  <si>
+    <t>student34</t>
+  </si>
+  <si>
+    <t>student35</t>
+  </si>
+  <si>
+    <t>student36</t>
+  </si>
+  <si>
+    <t>student37</t>
+  </si>
+  <si>
+    <t>student38</t>
+  </si>
+  <si>
+    <t>student39</t>
+  </si>
+  <si>
+    <t>student1@gmail.com</t>
+  </si>
+  <si>
+    <t>student2@gmail.com</t>
+  </si>
+  <si>
+    <t>student3@gmail.com</t>
+  </si>
+  <si>
+    <t>student4@gmail.com</t>
+  </si>
+  <si>
+    <t>student5@gmail.com</t>
+  </si>
+  <si>
+    <t>student6@gmail.com</t>
+  </si>
+  <si>
+    <t>student7@gmail.com</t>
+  </si>
+  <si>
+    <t>student8@gmail.com</t>
+  </si>
+  <si>
+    <t>student9@gmail.com</t>
+  </si>
+  <si>
+    <t>student10@gmail.com</t>
+  </si>
+  <si>
+    <t>student11@gmail.com</t>
+  </si>
+  <si>
+    <t>student12@gmail.com</t>
+  </si>
+  <si>
+    <t>student13@gmail.com</t>
+  </si>
+  <si>
+    <t>student14@gmail.com</t>
+  </si>
+  <si>
+    <t>student15@gmail.com</t>
+  </si>
+  <si>
+    <t>student16@gmail.com</t>
+  </si>
+  <si>
+    <t>student17@gmail.com</t>
+  </si>
+  <si>
+    <t>student18@gmail.com</t>
+  </si>
+  <si>
+    <t>student19@gmail.com</t>
+  </si>
+  <si>
+    <t>student20@gmail.com</t>
+  </si>
+  <si>
+    <t>student21@gmail.com</t>
+  </si>
+  <si>
+    <t>student22@gmail.com</t>
+  </si>
+  <si>
+    <t>student23@gmail.com</t>
+  </si>
+  <si>
+    <t>student24@gmail.com</t>
+  </si>
+  <si>
+    <t>student25@gmail.com</t>
+  </si>
+  <si>
+    <t>student26@gmail.com</t>
+  </si>
+  <si>
+    <t>student27@gmail.com</t>
+  </si>
+  <si>
+    <t>student28@gmail.com</t>
+  </si>
+  <si>
+    <t>student29@gmail.com</t>
+  </si>
+  <si>
+    <t>student30@gmail.com</t>
+  </si>
+  <si>
+    <t>student31@gmail.com</t>
+  </si>
+  <si>
+    <t>student32@gmail.com</t>
+  </si>
+  <si>
+    <t>student33@gmail.com</t>
+  </si>
+  <si>
+    <t>student34@gmail.com</t>
+  </si>
+  <si>
+    <t>student35@gmail.com</t>
+  </si>
+  <si>
+    <t>student36@gmail.com</t>
+  </si>
+  <si>
+    <t>student37@gmail.com</t>
+  </si>
+  <si>
+    <t>student38@gmail.com</t>
+  </si>
+  <si>
+    <t>student39@gmail.com</t>
   </si>
   <si>
     <t>CSE</t>
@@ -166,7 +335,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -448,18 +617,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -473,314 +642,597 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>102001001</v>
       </c>
-      <c r="C2" s="1" t="str">
-        <f>_xlfn.CONCAT(B2, "@gmail.com")</f>
-        <v>102001001@gmail.com</v>
+      <c r="C2" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>102001002</v>
       </c>
-      <c r="C3" s="1" t="str">
-        <f t="shared" ref="C3:C21" si="0">_xlfn.CONCAT(B3, "@gmail.com")</f>
-        <v>102001002@gmail.com</v>
+      <c r="C3" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>102001003</v>
       </c>
-      <c r="C4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>102001003@gmail.com</v>
+      <c r="C4" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>102001004</v>
       </c>
-      <c r="C5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>102001004@gmail.com</v>
+      <c r="C5" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>102001005</v>
       </c>
-      <c r="C6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>102001005@gmail.com</v>
+      <c r="C6" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>102001006</v>
       </c>
-      <c r="C7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>102001006@gmail.com</v>
+      <c r="C7" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>102001007</v>
       </c>
-      <c r="C8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>102001007@gmail.com</v>
+      <c r="C8" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>102001008</v>
       </c>
-      <c r="C9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>102001008@gmail.com</v>
+      <c r="C9" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>102001009</v>
       </c>
-      <c r="C10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>102001009@gmail.com</v>
+      <c r="C10" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>102001010</v>
       </c>
-      <c r="C11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>102001010@gmail.com</v>
+      <c r="C11" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>102001011</v>
       </c>
-      <c r="C12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>102001011@gmail.com</v>
+      <c r="C12" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>102001012</v>
       </c>
-      <c r="C13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>102001012@gmail.com</v>
+      <c r="C13" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>102001013</v>
       </c>
-      <c r="C14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>102001013@gmail.com</v>
+      <c r="C14" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>102001014</v>
       </c>
-      <c r="C15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>102001014@gmail.com</v>
+      <c r="C15" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>102001015</v>
       </c>
-      <c r="C16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>102001015@gmail.com</v>
+      <c r="C16" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>102001016</v>
       </c>
-      <c r="C17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>102001016@gmail.com</v>
+      <c r="C17" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>102001017</v>
       </c>
-      <c r="C18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>102001017@gmail.com</v>
+      <c r="C18" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>102001018</v>
       </c>
-      <c r="C19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>102001018@gmail.com</v>
+      <c r="C19" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>102001019</v>
       </c>
-      <c r="C20" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>102001019@gmail.com</v>
+      <c r="C20" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>102001020</v>
       </c>
-      <c r="C21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>102001020@gmail.com</v>
+      <c r="C21" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="D21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>102001021</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>25</v>
+      </c>
+      <c r="B23">
+        <v>102001022</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>102001023</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>102001024</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>102001025</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <v>102001026</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <v>102001027</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <v>102001028</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <v>102001029</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31">
+        <v>102001030</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32">
+        <v>102001031</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33">
+        <v>102001032</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34">
+        <v>102001033</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35">
+        <v>102001034</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36">
+        <v>102001035</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37">
+        <v>102001036</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38">
+        <v>102001037</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39">
+        <v>102001038</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40">
+        <v>102001039</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="102001001@gmail.com" xr:uid="{929DFB0C-13F2-4A87-8E4B-C702EABA534D}"/>
-    <hyperlink ref="C3:C21" r:id="rId2" display="102001001@gmail.com" xr:uid="{73581422-A963-488A-9E97-87719702906C}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{2D26B432-C292-4837-B9EF-F57DF33ADA2F}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{1A13B636-2E6F-4295-8C48-023187989E68}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{4539362C-D273-4439-A98B-59F2140D518C}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{BEF980B0-E8DB-44ED-8F29-6FE92901C891}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{97678F0F-A1EB-4F9E-AF39-6F36C659CE73}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{0037BF9A-C817-4B2A-A0B2-3E0EB79F4DD5}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{E14242A5-27F0-4FE5-992B-CD9900751FDF}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{C6E5A248-E9AA-46ED-B158-BD1E63885A86}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{B48E62F6-A035-41F0-B5F6-6640F26DCBC1}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{31317A83-3968-420B-BFA8-083DD844177A}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{AD47DC26-AEEF-4A32-8BD5-8608A82B83EF}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{58BDB820-97FE-40C3-B218-DE28A7FCC554}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{F5422E1D-E8C3-4730-ADC5-FA2D253387F0}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{01E33767-F5AA-4D99-9E40-2933A427665F}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{B4976C58-00CF-4A80-B063-966FD9C22CE0}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{7DA5ADDA-84B3-4A70-A0A6-0A7C73A8766B}"/>
+    <hyperlink ref="C18" r:id="rId17" xr:uid="{51D5AB58-C8FC-498E-8FD4-73BD9BC18D91}"/>
+    <hyperlink ref="C19" r:id="rId18" xr:uid="{FFF73EEC-94A3-4F88-B689-9B52F845DEF7}"/>
+    <hyperlink ref="C20" r:id="rId19" xr:uid="{29BEB221-969B-4225-ABFB-69AD4C3D4445}"/>
+    <hyperlink ref="C21" r:id="rId20" xr:uid="{4BEB7D95-C667-48B2-9180-FC6ACE4A9904}"/>
+    <hyperlink ref="C22" r:id="rId21" xr:uid="{2F5F2834-1769-4B77-9BE3-5C4194C8FDA1}"/>
+    <hyperlink ref="C23" r:id="rId22" xr:uid="{4E737FF6-BC74-4442-95C7-3477C75E1EEB}"/>
+    <hyperlink ref="C24" r:id="rId23" xr:uid="{40CF63A3-6F8B-4D88-B5C8-62A381B045E7}"/>
+    <hyperlink ref="C25" r:id="rId24" xr:uid="{EB034C3C-6587-47AB-BB66-E72528C3F4D3}"/>
+    <hyperlink ref="C26" r:id="rId25" xr:uid="{29E38062-E8EE-470D-8253-06014DD2A7CF}"/>
+    <hyperlink ref="C27" r:id="rId26" xr:uid="{5629E9BA-C0C7-44FF-94F1-CCE427169FB9}"/>
+    <hyperlink ref="C28" r:id="rId27" xr:uid="{9D39A381-D29A-47D2-BEA1-08027C8F920B}"/>
+    <hyperlink ref="C29" r:id="rId28" xr:uid="{D218823E-1670-4B1E-9ADF-613C10D9C41F}"/>
+    <hyperlink ref="C30" r:id="rId29" xr:uid="{48908F9E-A1C5-47AA-ACAD-53E409CC1C13}"/>
+    <hyperlink ref="C31" r:id="rId30" xr:uid="{23FE3A0B-25D6-4AA8-B5A5-04BE3CC02BE8}"/>
+    <hyperlink ref="C32" r:id="rId31" xr:uid="{E7FA8DBC-0D98-4B6F-8639-8AED3FBF6B93}"/>
+    <hyperlink ref="C33" r:id="rId32" xr:uid="{8FDD63C5-8684-4364-98FC-2D8F35BF87BE}"/>
+    <hyperlink ref="C34" r:id="rId33" xr:uid="{13B4BDD2-1C01-4808-9AFD-7CE7E69A610E}"/>
+    <hyperlink ref="C35" r:id="rId34" xr:uid="{08EB77CC-7175-4076-851F-82262A159F9F}"/>
+    <hyperlink ref="C36" r:id="rId35" xr:uid="{9DD8A10C-77E4-497F-A2FF-EF2D9D87AF5C}"/>
+    <hyperlink ref="C37" r:id="rId36" xr:uid="{A7F3C179-6593-4409-AB9D-CA956B7F7499}"/>
+    <hyperlink ref="C38" r:id="rId37" xr:uid="{9D8FD8FD-52A8-4982-9E57-A55AD302CAB7}"/>
+    <hyperlink ref="C39" r:id="rId38" xr:uid="{A68F8BC8-7995-408D-A35D-7982CB597A82}"/>
+    <hyperlink ref="C40" r:id="rId39" xr:uid="{30F606F6-39B2-455B-9E0A-096AE1A7E4AF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/upload/Student.xlsx
+++ b/upload/Student.xlsx
@@ -1,31 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\TA_Allocation_OELP\data files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99DF1A9-E12C-4EA2-9C5D-4AFEC8568436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="11060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="84">
   <si>
     <t>Name</t>
   </si>
@@ -42,265 +31,259 @@
     <t>student1</t>
   </si>
   <si>
+    <t>student1@gmail.com</t>
+  </si>
+  <si>
+    <t>CSE</t>
+  </si>
+  <si>
     <t>student2</t>
   </si>
   <si>
+    <t>student2@gmail.com</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
     <t>student3</t>
   </si>
   <si>
+    <t>student3@gmail.com</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
     <t>student4</t>
   </si>
   <si>
+    <t>student4@gmail.com</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
     <t>student5</t>
   </si>
   <si>
+    <t>student5@gmail.com</t>
+  </si>
+  <si>
     <t>student6</t>
   </si>
   <si>
+    <t>student6@gmail.com</t>
+  </si>
+  <si>
     <t>student7</t>
   </si>
   <si>
+    <t>student7@gmail.com</t>
+  </si>
+  <si>
     <t>student8</t>
   </si>
   <si>
+    <t>student8@gmail.com</t>
+  </si>
+  <si>
     <t>student9</t>
   </si>
   <si>
+    <t>student9@gmail.com</t>
+  </si>
+  <si>
     <t>student10</t>
   </si>
   <si>
+    <t>student10@gmail.com</t>
+  </si>
+  <si>
     <t>student11</t>
   </si>
   <si>
+    <t>student11@gmail.com</t>
+  </si>
+  <si>
     <t>student12</t>
   </si>
   <si>
+    <t>student12@gmail.com</t>
+  </si>
+  <si>
     <t>student13</t>
   </si>
   <si>
+    <t>student13@gmail.com</t>
+  </si>
+  <si>
     <t>student14</t>
   </si>
   <si>
+    <t>student14@gmail.com</t>
+  </si>
+  <si>
     <t>student15</t>
   </si>
   <si>
+    <t>student15@gmail.com</t>
+  </si>
+  <si>
     <t>student16</t>
   </si>
   <si>
+    <t>student16@gmail.com</t>
+  </si>
+  <si>
     <t>student17</t>
   </si>
   <si>
+    <t>student17@gmail.com</t>
+  </si>
+  <si>
     <t>student18</t>
   </si>
   <si>
+    <t>student18@gmail.com</t>
+  </si>
+  <si>
     <t>student19</t>
   </si>
   <si>
+    <t>student19@gmail.com</t>
+  </si>
+  <si>
     <t>student20</t>
   </si>
   <si>
+    <t>student20@gmail.com</t>
+  </si>
+  <si>
     <t>student21</t>
   </si>
   <si>
+    <t>student21@gmail.com</t>
+  </si>
+  <si>
     <t>student22</t>
   </si>
   <si>
+    <t>student22@gmail.com</t>
+  </si>
+  <si>
     <t>student23</t>
   </si>
   <si>
+    <t>student23@gmail.com</t>
+  </si>
+  <si>
     <t>student24</t>
   </si>
   <si>
+    <t>student24@gmail.com</t>
+  </si>
+  <si>
     <t>student25</t>
   </si>
   <si>
+    <t>student25@gmail.com</t>
+  </si>
+  <si>
     <t>student26</t>
   </si>
   <si>
+    <t>student26@gmail.com</t>
+  </si>
+  <si>
     <t>student27</t>
   </si>
   <si>
+    <t>student27@gmail.com</t>
+  </si>
+  <si>
     <t>student28</t>
   </si>
   <si>
+    <t>student28@gmail.com</t>
+  </si>
+  <si>
     <t>student29</t>
   </si>
   <si>
+    <t>student29@gmail.com</t>
+  </si>
+  <si>
     <t>student30</t>
   </si>
   <si>
+    <t>student30@gmail.com</t>
+  </si>
+  <si>
     <t>student31</t>
   </si>
   <si>
+    <t>student31@gmail.com</t>
+  </si>
+  <si>
     <t>student32</t>
   </si>
   <si>
+    <t>student32@gmail.com</t>
+  </si>
+  <si>
     <t>student33</t>
   </si>
   <si>
+    <t>student33@gmail.com</t>
+  </si>
+  <si>
     <t>student34</t>
   </si>
   <si>
+    <t>student34@gmail.com</t>
+  </si>
+  <si>
     <t>student35</t>
   </si>
   <si>
+    <t>student35@gmail.com</t>
+  </si>
+  <si>
     <t>student36</t>
   </si>
   <si>
+    <t>student36@gmail.com</t>
+  </si>
+  <si>
     <t>student37</t>
   </si>
   <si>
+    <t>student37@gmail.com</t>
+  </si>
+  <si>
     <t>student38</t>
   </si>
   <si>
-    <t>student39</t>
-  </si>
-  <si>
-    <t>student1@gmail.com</t>
-  </si>
-  <si>
-    <t>student2@gmail.com</t>
-  </si>
-  <si>
-    <t>student3@gmail.com</t>
-  </si>
-  <si>
-    <t>student4@gmail.com</t>
-  </si>
-  <si>
-    <t>student5@gmail.com</t>
-  </si>
-  <si>
-    <t>student6@gmail.com</t>
-  </si>
-  <si>
-    <t>student7@gmail.com</t>
-  </si>
-  <si>
-    <t>student8@gmail.com</t>
-  </si>
-  <si>
-    <t>student9@gmail.com</t>
-  </si>
-  <si>
-    <t>student10@gmail.com</t>
-  </si>
-  <si>
-    <t>student11@gmail.com</t>
-  </si>
-  <si>
-    <t>student12@gmail.com</t>
-  </si>
-  <si>
-    <t>student13@gmail.com</t>
-  </si>
-  <si>
-    <t>student14@gmail.com</t>
-  </si>
-  <si>
-    <t>student15@gmail.com</t>
-  </si>
-  <si>
-    <t>student16@gmail.com</t>
-  </si>
-  <si>
-    <t>student17@gmail.com</t>
-  </si>
-  <si>
-    <t>student18@gmail.com</t>
-  </si>
-  <si>
-    <t>student19@gmail.com</t>
-  </si>
-  <si>
-    <t>student20@gmail.com</t>
-  </si>
-  <si>
-    <t>student21@gmail.com</t>
-  </si>
-  <si>
-    <t>student22@gmail.com</t>
-  </si>
-  <si>
-    <t>student23@gmail.com</t>
-  </si>
-  <si>
-    <t>student24@gmail.com</t>
-  </si>
-  <si>
-    <t>student25@gmail.com</t>
-  </si>
-  <si>
-    <t>student26@gmail.com</t>
-  </si>
-  <si>
-    <t>student27@gmail.com</t>
-  </si>
-  <si>
-    <t>student28@gmail.com</t>
-  </si>
-  <si>
-    <t>student29@gmail.com</t>
-  </si>
-  <si>
-    <t>student30@gmail.com</t>
-  </si>
-  <si>
-    <t>student31@gmail.com</t>
-  </si>
-  <si>
-    <t>student32@gmail.com</t>
-  </si>
-  <si>
-    <t>student33@gmail.com</t>
-  </si>
-  <si>
-    <t>student34@gmail.com</t>
-  </si>
-  <si>
-    <t>student35@gmail.com</t>
-  </si>
-  <si>
-    <t>student36@gmail.com</t>
-  </si>
-  <si>
-    <t>student37@gmail.com</t>
-  </si>
-  <si>
     <t>student38@gmail.com</t>
-  </si>
-  <si>
-    <t>student39@gmail.com</t>
-  </si>
-  <si>
-    <t>CSE</t>
-  </si>
-  <si>
-    <t>CE</t>
-  </si>
-  <si>
-    <t>ME</t>
-  </si>
-  <si>
-    <t>EE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -308,19 +291,348 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -328,27 +640,309 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -397,7 +991,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -432,7 +1026,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -606,32 +1200,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="17.5546875" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" customWidth="1"/>
     <col min="3" max="3" width="19.109375" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" customWidth="1"/>
+    <col min="4" max="4" width="19.890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -645,7 +1234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -653,477 +1242,477 @@
         <v>102001001</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>102001002</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>102001003</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>102001004</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>102001005</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>102001006</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>102001007</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>102001008</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B10">
         <v>102001009</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B11">
         <v>102001010</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B12">
         <v>102001011</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B13">
         <v>102001012</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B14">
         <v>102001013</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B15">
         <v>102001014</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B16">
         <v>102001015</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B17">
         <v>102001016</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B18">
         <v>102001017</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B19">
         <v>102001018</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B20">
         <v>102001019</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B21">
         <v>102001020</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="B22">
         <v>102001021</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="B23">
         <v>102001022</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="D23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B24">
         <v>102001023</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="B25">
         <v>102001024</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="B26">
         <v>102001025</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D26" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="B27">
         <v>102001026</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D27" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B28">
         <v>102001027</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D28" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="B29">
         <v>102001028</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D29" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="B30">
         <v>102001029</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D30" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="B31">
         <v>102001030</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D31" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="B32">
         <v>102001031</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D32" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="B33">
         <v>102001032</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D33" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="B34">
         <v>102001033</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D34" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="B35">
         <v>102001034</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
         <v>76</v>
-      </c>
-      <c r="D35" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>38</v>
       </c>
       <c r="B36">
         <v>102001035</v>
@@ -1132,108 +1721,96 @@
         <v>77</v>
       </c>
       <c r="D36" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="B37">
         <v>102001036</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D37" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="B38">
         <v>102001037</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>41</v>
       </c>
       <c r="B39">
         <v>102001038</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D39" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40">
-        <v>102001039</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D40" t="s">
-        <v>84</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{2D26B432-C292-4837-B9EF-F57DF33ADA2F}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{1A13B636-2E6F-4295-8C48-023187989E68}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{4539362C-D273-4439-A98B-59F2140D518C}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{BEF980B0-E8DB-44ED-8F29-6FE92901C891}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{97678F0F-A1EB-4F9E-AF39-6F36C659CE73}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{0037BF9A-C817-4B2A-A0B2-3E0EB79F4DD5}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{E14242A5-27F0-4FE5-992B-CD9900751FDF}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{C6E5A248-E9AA-46ED-B158-BD1E63885A86}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{B48E62F6-A035-41F0-B5F6-6640F26DCBC1}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{31317A83-3968-420B-BFA8-083DD844177A}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{AD47DC26-AEEF-4A32-8BD5-8608A82B83EF}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{58BDB820-97FE-40C3-B218-DE28A7FCC554}"/>
-    <hyperlink ref="C14" r:id="rId13" xr:uid="{F5422E1D-E8C3-4730-ADC5-FA2D253387F0}"/>
-    <hyperlink ref="C15" r:id="rId14" xr:uid="{01E33767-F5AA-4D99-9E40-2933A427665F}"/>
-    <hyperlink ref="C16" r:id="rId15" xr:uid="{B4976C58-00CF-4A80-B063-966FD9C22CE0}"/>
-    <hyperlink ref="C17" r:id="rId16" xr:uid="{7DA5ADDA-84B3-4A70-A0A6-0A7C73A8766B}"/>
-    <hyperlink ref="C18" r:id="rId17" xr:uid="{51D5AB58-C8FC-498E-8FD4-73BD9BC18D91}"/>
-    <hyperlink ref="C19" r:id="rId18" xr:uid="{FFF73EEC-94A3-4F88-B689-9B52F845DEF7}"/>
-    <hyperlink ref="C20" r:id="rId19" xr:uid="{29BEB221-969B-4225-ABFB-69AD4C3D4445}"/>
-    <hyperlink ref="C21" r:id="rId20" xr:uid="{4BEB7D95-C667-48B2-9180-FC6ACE4A9904}"/>
-    <hyperlink ref="C22" r:id="rId21" xr:uid="{2F5F2834-1769-4B77-9BE3-5C4194C8FDA1}"/>
-    <hyperlink ref="C23" r:id="rId22" xr:uid="{4E737FF6-BC74-4442-95C7-3477C75E1EEB}"/>
-    <hyperlink ref="C24" r:id="rId23" xr:uid="{40CF63A3-6F8B-4D88-B5C8-62A381B045E7}"/>
-    <hyperlink ref="C25" r:id="rId24" xr:uid="{EB034C3C-6587-47AB-BB66-E72528C3F4D3}"/>
-    <hyperlink ref="C26" r:id="rId25" xr:uid="{29E38062-E8EE-470D-8253-06014DD2A7CF}"/>
-    <hyperlink ref="C27" r:id="rId26" xr:uid="{5629E9BA-C0C7-44FF-94F1-CCE427169FB9}"/>
-    <hyperlink ref="C28" r:id="rId27" xr:uid="{9D39A381-D29A-47D2-BEA1-08027C8F920B}"/>
-    <hyperlink ref="C29" r:id="rId28" xr:uid="{D218823E-1670-4B1E-9ADF-613C10D9C41F}"/>
-    <hyperlink ref="C30" r:id="rId29" xr:uid="{48908F9E-A1C5-47AA-ACAD-53E409CC1C13}"/>
-    <hyperlink ref="C31" r:id="rId30" xr:uid="{23FE3A0B-25D6-4AA8-B5A5-04BE3CC02BE8}"/>
-    <hyperlink ref="C32" r:id="rId31" xr:uid="{E7FA8DBC-0D98-4B6F-8639-8AED3FBF6B93}"/>
-    <hyperlink ref="C33" r:id="rId32" xr:uid="{8FDD63C5-8684-4364-98FC-2D8F35BF87BE}"/>
-    <hyperlink ref="C34" r:id="rId33" xr:uid="{13B4BDD2-1C01-4808-9AFD-7CE7E69A610E}"/>
-    <hyperlink ref="C35" r:id="rId34" xr:uid="{08EB77CC-7175-4076-851F-82262A159F9F}"/>
-    <hyperlink ref="C36" r:id="rId35" xr:uid="{9DD8A10C-77E4-497F-A2FF-EF2D9D87AF5C}"/>
-    <hyperlink ref="C37" r:id="rId36" xr:uid="{A7F3C179-6593-4409-AB9D-CA956B7F7499}"/>
-    <hyperlink ref="C38" r:id="rId37" xr:uid="{9D8FD8FD-52A8-4982-9E57-A55AD302CAB7}"/>
-    <hyperlink ref="C39" r:id="rId38" xr:uid="{A68F8BC8-7995-408D-A35D-7982CB597A82}"/>
-    <hyperlink ref="C40" r:id="rId39" xr:uid="{30F606F6-39B2-455B-9E0A-096AE1A7E4AF}"/>
+    <hyperlink ref="C2" r:id="rId1" display="student1@gmail.com"/>
+    <hyperlink ref="C3" r:id="rId2" display="student2@gmail.com"/>
+    <hyperlink ref="C4" r:id="rId3" display="student3@gmail.com"/>
+    <hyperlink ref="C5" r:id="rId4" display="student4@gmail.com"/>
+    <hyperlink ref="C6" r:id="rId5" display="student5@gmail.com"/>
+    <hyperlink ref="C7" r:id="rId6" display="student6@gmail.com"/>
+    <hyperlink ref="C8" r:id="rId7" display="student7@gmail.com"/>
+    <hyperlink ref="C9" r:id="rId8" display="student8@gmail.com"/>
+    <hyperlink ref="C10" r:id="rId9" display="student9@gmail.com"/>
+    <hyperlink ref="C11" r:id="rId10" display="student10@gmail.com"/>
+    <hyperlink ref="C12" r:id="rId11" display="student11@gmail.com"/>
+    <hyperlink ref="C13" r:id="rId12" display="student12@gmail.com"/>
+    <hyperlink ref="C14" r:id="rId13" display="student13@gmail.com"/>
+    <hyperlink ref="C15" r:id="rId14" display="student14@gmail.com"/>
+    <hyperlink ref="C16" r:id="rId15" display="student15@gmail.com"/>
+    <hyperlink ref="C17" r:id="rId16" display="student16@gmail.com"/>
+    <hyperlink ref="C18" r:id="rId17" display="student17@gmail.com"/>
+    <hyperlink ref="C19" r:id="rId18" display="student18@gmail.com"/>
+    <hyperlink ref="C20" r:id="rId19" display="student19@gmail.com"/>
+    <hyperlink ref="C21" r:id="rId20" display="student20@gmail.com"/>
+    <hyperlink ref="C22" r:id="rId21" display="student21@gmail.com"/>
+    <hyperlink ref="C23" r:id="rId22" display="student22@gmail.com"/>
+    <hyperlink ref="C24" r:id="rId23" display="student23@gmail.com"/>
+    <hyperlink ref="C25" r:id="rId24" display="student24@gmail.com"/>
+    <hyperlink ref="C26" r:id="rId25" display="student25@gmail.com"/>
+    <hyperlink ref="C27" r:id="rId26" display="student26@gmail.com"/>
+    <hyperlink ref="C28" r:id="rId27" display="student27@gmail.com"/>
+    <hyperlink ref="C29" r:id="rId28" display="student28@gmail.com"/>
+    <hyperlink ref="C30" r:id="rId29" display="student29@gmail.com"/>
+    <hyperlink ref="C31" r:id="rId30" display="student30@gmail.com"/>
+    <hyperlink ref="C32" r:id="rId31" display="student31@gmail.com"/>
+    <hyperlink ref="C33" r:id="rId32" display="student32@gmail.com"/>
+    <hyperlink ref="C34" r:id="rId33" display="student33@gmail.com"/>
+    <hyperlink ref="C35" r:id="rId34" display="student34@gmail.com"/>
+    <hyperlink ref="C36" r:id="rId35" display="student35@gmail.com"/>
+    <hyperlink ref="C37" r:id="rId36" display="student36@gmail.com"/>
+    <hyperlink ref="C38" r:id="rId37" display="student37@gmail.com"/>
+    <hyperlink ref="C39" r:id="rId38" display="student38@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>